--- a/001.boot/boot.xlsx
+++ b/001.boot/boot.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>BIOS</t>
     <phoneticPr fontId="1"/>
@@ -35,6 +35,66 @@
   </si>
   <si>
     <t>查找分区表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查启动扇区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>55AA</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查分区表的系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FATAL:Not a bootable disk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GOTO MBR</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -42,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +122,13 @@
       <name val="MingLiU"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,13 +454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -404,9 +474,6 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -414,6 +481,31 @@
     <row r="3" spans="1:3" ht="15.75">
       <c r="C3" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/001.boot/boot.xlsx
+++ b/001.boot/boot.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>BIOS</t>
     <phoneticPr fontId="1"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>GOTO MBR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT18: BOOT FAILURE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,7 +461,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -501,6 +505,9 @@
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
